--- a/EJBComponents/ImageProcessingBenchmark/stats/resourceContention/ExcelSheets/analysis-runtimes.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark/stats/resourceContention/ExcelSheets/analysis-runtimes.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>13.5</v>
